--- a/Relacion de lineas Echemienda Naranjo Miriam.xlsx
+++ b/Relacion de lineas Echemienda Naranjo Miriam.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cvc1016f\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\GitHub\dta-agricola\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51CF5A2-3488-4E5E-9AFC-6CCB6A37E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -92,11 +93,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -424,17 +431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -454,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -471,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -488,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -505,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -522,7 +531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -539,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -556,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -573,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -590,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -607,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -624,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -641,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -658,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -675,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -692,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
